--- a/hw/SBC1802 BOM.xlsx
+++ b/hw/SBC1802 BOM.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28429"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\fours\Documents\SBC1802\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\fours\Git\SBC1802\hw\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{26CFAAA5-F464-4515-BA1F-8295F839ADFC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7EA714AC-C0F6-4F9C-9C28-0F5DD50A1606}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="760" yWindow="270" windowWidth="17930" windowHeight="10530" xr2:uid="{E6317DB6-1395-40AB-B574-B66DE8210E28}"/>
+    <workbookView xWindow="380" yWindow="380" windowWidth="17910" windowHeight="10170" xr2:uid="{E6317DB6-1395-40AB-B574-B66DE8210E28}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="502" uniqueCount="353">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="509" uniqueCount="358">
   <si>
     <t>Qty</t>
   </si>
@@ -313,18 +313,9 @@
     <t>U22</t>
   </si>
   <si>
-    <t>Abracon</t>
-  </si>
-  <si>
-    <t>ACH-32.768MHZ-EK</t>
-  </si>
-  <si>
     <t>32768Hz</t>
   </si>
   <si>
-    <t>535-9178-5-ND</t>
-  </si>
-  <si>
     <t>U18,U19,U20,U23</t>
   </si>
   <si>
@@ -442,9 +433,6 @@
     <t>CF18JT4K70CT-ND</t>
   </si>
   <si>
-    <t>R2,R3,R6,R7,R8,R12</t>
-  </si>
-  <si>
     <t>10M Ohms</t>
   </si>
   <si>
@@ -1094,6 +1082,33 @@
   </si>
   <si>
     <t>8 Position Dip Switch, SPST, DIP-16</t>
+  </si>
+  <si>
+    <t>R2,R3,R6,R7,R8,R9,R12</t>
+  </si>
+  <si>
+    <t>Pletronics</t>
+  </si>
+  <si>
+    <t>P1145-HCM-32.768K</t>
+  </si>
+  <si>
+    <t>F1</t>
+  </si>
+  <si>
+    <t>Fuse, 5A</t>
+  </si>
+  <si>
+    <t>FUSE BRD MNT 5A 125VAC/VDC AXIAL</t>
+  </si>
+  <si>
+    <t>Littlefuse</t>
+  </si>
+  <si>
+    <t>0251005.NRT1L</t>
+  </si>
+  <si>
+    <t>F5566CT-ND</t>
   </si>
 </sst>
 </file>
@@ -1530,8 +1545,8 @@
   </sheetPr>
   <dimension ref="A2:K79"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A65" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A80" sqref="A80:XFD81"/>
+    <sheetView tabSelected="1" topLeftCell="A62" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="H72" sqref="H72"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -1547,7 +1562,7 @@
   <sheetData>
     <row r="2" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A2" s="10" t="s">
-        <v>126</v>
+        <v>123</v>
       </c>
       <c r="B2" s="10"/>
       <c r="C2"/>
@@ -1954,7 +1969,7 @@
         <v>83</v>
       </c>
       <c r="D18" s="4" t="s">
-        <v>96</v>
+        <v>93</v>
       </c>
       <c r="E18" t="s">
         <v>12</v>
@@ -2000,7 +2015,7 @@
         <v>1</v>
       </c>
       <c r="B20" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="C20" s="5" t="s">
         <v>90</v>
@@ -2009,16 +2024,16 @@
         <v>91</v>
       </c>
       <c r="E20" t="s">
-        <v>92</v>
+        <v>350</v>
       </c>
       <c r="F20" t="s">
-        <v>93</v>
+        <v>351</v>
       </c>
       <c r="G20" t="s">
-        <v>13</v>
-      </c>
-      <c r="H20" t="s">
-        <v>95</v>
+        <v>10</v>
+      </c>
+      <c r="H20" s="7" t="s">
+        <v>351</v>
       </c>
     </row>
     <row r="21" spans="1:8" x14ac:dyDescent="0.35">
@@ -2026,25 +2041,25 @@
         <v>2</v>
       </c>
       <c r="B21" t="s">
+        <v>95</v>
+      </c>
+      <c r="C21" s="5" t="s">
         <v>98</v>
       </c>
-      <c r="C21" s="5" t="s">
-        <v>101</v>
-      </c>
       <c r="D21" s="4" t="s">
-        <v>97</v>
+        <v>94</v>
       </c>
       <c r="E21" t="s">
         <v>45</v>
       </c>
       <c r="F21" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
       <c r="G21" t="s">
         <v>13</v>
       </c>
       <c r="H21" s="7" t="s">
-        <v>100</v>
+        <v>97</v>
       </c>
     </row>
     <row r="22" spans="1:8" x14ac:dyDescent="0.35">
@@ -2052,25 +2067,25 @@
         <v>1</v>
       </c>
       <c r="B22" t="s">
-        <v>99</v>
+        <v>96</v>
       </c>
       <c r="C22" s="5" t="s">
-        <v>106</v>
+        <v>103</v>
       </c>
       <c r="D22" s="4" t="s">
-        <v>103</v>
+        <v>100</v>
       </c>
       <c r="E22" t="s">
         <v>45</v>
       </c>
       <c r="F22" t="s">
-        <v>105</v>
+        <v>102</v>
       </c>
       <c r="G22" t="s">
         <v>13</v>
       </c>
       <c r="H22" t="s">
-        <v>104</v>
+        <v>101</v>
       </c>
     </row>
     <row r="23" spans="1:8" x14ac:dyDescent="0.35">
@@ -2078,25 +2093,25 @@
         <v>1</v>
       </c>
       <c r="B23" t="s">
-        <v>107</v>
+        <v>104</v>
       </c>
       <c r="C23" s="5" t="s">
-        <v>101</v>
+        <v>98</v>
       </c>
       <c r="D23" s="4" t="s">
-        <v>109</v>
+        <v>106</v>
       </c>
       <c r="E23" t="s">
         <v>45</v>
       </c>
       <c r="F23" t="s">
-        <v>108</v>
+        <v>105</v>
       </c>
       <c r="G23" t="s">
         <v>13</v>
       </c>
       <c r="H23" t="s">
-        <v>110</v>
+        <v>107</v>
       </c>
     </row>
     <row r="24" spans="1:8" x14ac:dyDescent="0.35">
@@ -2104,25 +2119,25 @@
         <v>1</v>
       </c>
       <c r="B24" t="s">
+        <v>108</v>
+      </c>
+      <c r="C24" s="5" t="s">
+        <v>119</v>
+      </c>
+      <c r="D24" s="4" t="s">
         <v>111</v>
-      </c>
-      <c r="C24" s="5" t="s">
-        <v>122</v>
-      </c>
-      <c r="D24" s="4" t="s">
-        <v>114</v>
       </c>
       <c r="E24" t="s">
         <v>45</v>
       </c>
       <c r="F24" s="7" t="s">
-        <v>121</v>
+        <v>118</v>
       </c>
       <c r="G24" t="s">
         <v>13</v>
       </c>
       <c r="H24" t="s">
-        <v>120</v>
+        <v>117</v>
       </c>
     </row>
     <row r="25" spans="1:8" x14ac:dyDescent="0.35">
@@ -2130,25 +2145,25 @@
         <v>1</v>
       </c>
       <c r="B25" t="s">
+        <v>109</v>
+      </c>
+      <c r="C25" s="5" t="s">
+        <v>115</v>
+      </c>
+      <c r="D25" s="4" t="s">
         <v>112</v>
-      </c>
-      <c r="C25" s="5" t="s">
-        <v>118</v>
-      </c>
-      <c r="D25" s="4" t="s">
-        <v>115</v>
       </c>
       <c r="E25" t="s">
         <v>45</v>
       </c>
       <c r="F25" t="s">
-        <v>119</v>
+        <v>116</v>
       </c>
       <c r="G25" t="s">
         <v>13</v>
       </c>
       <c r="H25" t="s">
-        <v>117</v>
+        <v>114</v>
       </c>
     </row>
     <row r="26" spans="1:8" x14ac:dyDescent="0.35">
@@ -2156,30 +2171,30 @@
         <v>1</v>
       </c>
       <c r="B26" t="s">
+        <v>110</v>
+      </c>
+      <c r="C26" s="5" t="s">
+        <v>121</v>
+      </c>
+      <c r="D26" s="4" t="s">
         <v>113</v>
-      </c>
-      <c r="C26" s="5" t="s">
-        <v>124</v>
-      </c>
-      <c r="D26" s="4" t="s">
-        <v>116</v>
       </c>
       <c r="E26" t="s">
         <v>45</v>
       </c>
       <c r="F26" s="6" t="s">
-        <v>123</v>
+        <v>120</v>
       </c>
       <c r="G26" s="6" t="s">
         <v>13</v>
       </c>
       <c r="H26" t="s">
-        <v>125</v>
+        <v>122</v>
       </c>
     </row>
     <row r="28" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A28" s="10" t="s">
-        <v>127</v>
+        <v>124</v>
       </c>
       <c r="B28" s="10"/>
       <c r="C28"/>
@@ -2215,25 +2230,25 @@
         <v>2</v>
       </c>
       <c r="B30" t="s">
-        <v>136</v>
+        <v>132</v>
       </c>
       <c r="C30" s="5" t="s">
-        <v>189</v>
+        <v>185</v>
       </c>
       <c r="D30" t="s">
-        <v>128</v>
+        <v>125</v>
       </c>
       <c r="E30" t="s">
-        <v>129</v>
+        <v>126</v>
       </c>
       <c r="F30" t="s">
-        <v>187</v>
+        <v>183</v>
       </c>
       <c r="G30" s="6" t="s">
         <v>13</v>
       </c>
       <c r="H30" s="7" t="s">
-        <v>186</v>
+        <v>182</v>
       </c>
     </row>
     <row r="31" spans="1:8" x14ac:dyDescent="0.35">
@@ -2241,25 +2256,25 @@
         <v>7</v>
       </c>
       <c r="B31" t="s">
-        <v>138</v>
+        <v>134</v>
       </c>
       <c r="C31" s="5" t="s">
-        <v>189</v>
+        <v>185</v>
       </c>
       <c r="D31" t="s">
-        <v>135</v>
+        <v>349</v>
       </c>
       <c r="E31" t="s">
-        <v>129</v>
+        <v>126</v>
       </c>
       <c r="F31" s="7" t="s">
-        <v>191</v>
+        <v>187</v>
       </c>
       <c r="G31" s="6" t="s">
         <v>13</v>
       </c>
       <c r="H31" t="s">
-        <v>188</v>
+        <v>184</v>
       </c>
     </row>
     <row r="32" spans="1:8" x14ac:dyDescent="0.35">
@@ -2267,25 +2282,25 @@
         <v>1</v>
       </c>
       <c r="B32" t="s">
-        <v>130</v>
+        <v>127</v>
       </c>
       <c r="C32" s="5" t="s">
-        <v>190</v>
+        <v>186</v>
       </c>
       <c r="D32" t="s">
-        <v>131</v>
+        <v>128</v>
       </c>
       <c r="E32" t="s">
-        <v>129</v>
+        <v>126</v>
       </c>
       <c r="F32" t="s">
-        <v>193</v>
+        <v>189</v>
       </c>
       <c r="G32" s="6" t="s">
         <v>13</v>
       </c>
       <c r="H32" t="s">
-        <v>192</v>
+        <v>188</v>
       </c>
     </row>
     <row r="33" spans="1:8" x14ac:dyDescent="0.35">
@@ -2293,25 +2308,25 @@
         <v>2</v>
       </c>
       <c r="B33" t="s">
-        <v>137</v>
+        <v>133</v>
       </c>
       <c r="C33" s="5" t="s">
-        <v>189</v>
+        <v>185</v>
       </c>
       <c r="D33" t="s">
-        <v>132</v>
+        <v>129</v>
       </c>
       <c r="E33" t="s">
-        <v>129</v>
+        <v>126</v>
       </c>
       <c r="F33" t="s">
-        <v>195</v>
+        <v>191</v>
       </c>
       <c r="G33" s="6" t="s">
         <v>13</v>
       </c>
       <c r="H33" t="s">
-        <v>194</v>
+        <v>190</v>
       </c>
     </row>
     <row r="34" spans="1:8" x14ac:dyDescent="0.35">
@@ -2319,25 +2334,25 @@
         <v>1</v>
       </c>
       <c r="B34" t="s">
-        <v>139</v>
+        <v>135</v>
       </c>
       <c r="C34" s="5" t="s">
-        <v>189</v>
+        <v>185</v>
       </c>
       <c r="D34" t="s">
-        <v>133</v>
+        <v>130</v>
       </c>
       <c r="E34" t="s">
-        <v>129</v>
+        <v>126</v>
       </c>
       <c r="F34" s="7" t="s">
-        <v>144</v>
+        <v>140</v>
       </c>
       <c r="G34" s="6" t="s">
         <v>13</v>
       </c>
       <c r="H34" t="s">
-        <v>134</v>
+        <v>131</v>
       </c>
     </row>
     <row r="35" spans="1:8" x14ac:dyDescent="0.35">
@@ -2345,25 +2360,25 @@
         <v>1</v>
       </c>
       <c r="B35" t="s">
-        <v>140</v>
+        <v>136</v>
       </c>
       <c r="C35" s="5" t="s">
-        <v>189</v>
+        <v>185</v>
       </c>
       <c r="D35" t="s">
+        <v>138</v>
+      </c>
+      <c r="E35" t="s">
+        <v>126</v>
+      </c>
+      <c r="F35" t="s">
         <v>142</v>
       </c>
-      <c r="E35" t="s">
-        <v>129</v>
-      </c>
-      <c r="F35" t="s">
-        <v>146</v>
-      </c>
       <c r="G35" s="6" t="s">
         <v>13</v>
       </c>
       <c r="H35" t="s">
-        <v>145</v>
+        <v>141</v>
       </c>
     </row>
     <row r="36" spans="1:8" x14ac:dyDescent="0.35">
@@ -2371,25 +2386,25 @@
         <v>1</v>
       </c>
       <c r="B36" t="s">
-        <v>141</v>
+        <v>137</v>
       </c>
       <c r="C36" s="5" t="s">
-        <v>189</v>
+        <v>185</v>
       </c>
       <c r="D36" t="s">
-        <v>143</v>
+        <v>139</v>
       </c>
       <c r="E36" t="s">
-        <v>129</v>
+        <v>126</v>
       </c>
       <c r="F36" t="s">
-        <v>196</v>
+        <v>192</v>
       </c>
       <c r="G36" s="6" t="s">
         <v>13</v>
       </c>
       <c r="H36" t="s">
-        <v>197</v>
+        <v>193</v>
       </c>
     </row>
     <row r="37" spans="1:8" x14ac:dyDescent="0.35">
@@ -2397,25 +2412,25 @@
         <v>3</v>
       </c>
       <c r="B37" t="s">
-        <v>241</v>
+        <v>237</v>
       </c>
       <c r="C37" s="5" t="s">
-        <v>234</v>
+        <v>230</v>
       </c>
       <c r="D37" t="s">
+        <v>229</v>
+      </c>
+      <c r="E37" t="s">
         <v>233</v>
       </c>
-      <c r="E37" t="s">
-        <v>237</v>
-      </c>
       <c r="F37" s="7" t="s">
-        <v>239</v>
+        <v>235</v>
       </c>
       <c r="G37" s="6" t="s">
         <v>13</v>
       </c>
       <c r="H37" s="7" t="s">
-        <v>240</v>
+        <v>236</v>
       </c>
     </row>
     <row r="38" spans="1:8" x14ac:dyDescent="0.35">
@@ -2423,25 +2438,25 @@
         <v>2</v>
       </c>
       <c r="B38" t="s">
-        <v>242</v>
+        <v>238</v>
       </c>
       <c r="C38" s="5" t="s">
-        <v>235</v>
+        <v>231</v>
       </c>
       <c r="D38" t="s">
+        <v>228</v>
+      </c>
+      <c r="E38" t="s">
+        <v>233</v>
+      </c>
+      <c r="F38" s="7" t="s">
+        <v>234</v>
+      </c>
+      <c r="G38" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="H38" t="s">
         <v>232</v>
-      </c>
-      <c r="E38" t="s">
-        <v>237</v>
-      </c>
-      <c r="F38" s="7" t="s">
-        <v>238</v>
-      </c>
-      <c r="G38" s="6" t="s">
-        <v>13</v>
-      </c>
-      <c r="H38" t="s">
-        <v>236</v>
       </c>
     </row>
     <row r="39" spans="1:8" x14ac:dyDescent="0.35">
@@ -2449,25 +2464,25 @@
         <v>1</v>
       </c>
       <c r="B39" t="s">
+        <v>145</v>
+      </c>
+      <c r="C39" s="5" t="s">
+        <v>146</v>
+      </c>
+      <c r="D39" t="s">
+        <v>143</v>
+      </c>
+      <c r="E39" t="s">
+        <v>147</v>
+      </c>
+      <c r="F39" t="s">
+        <v>148</v>
+      </c>
+      <c r="G39" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="H39" t="s">
         <v>149</v>
-      </c>
-      <c r="C39" s="5" t="s">
-        <v>150</v>
-      </c>
-      <c r="D39" t="s">
-        <v>147</v>
-      </c>
-      <c r="E39" t="s">
-        <v>151</v>
-      </c>
-      <c r="F39" t="s">
-        <v>152</v>
-      </c>
-      <c r="G39" s="6" t="s">
-        <v>13</v>
-      </c>
-      <c r="H39" t="s">
-        <v>153</v>
       </c>
     </row>
     <row r="40" spans="1:8" x14ac:dyDescent="0.35">
@@ -2475,25 +2490,25 @@
         <v>3</v>
       </c>
       <c r="B40" t="s">
-        <v>157</v>
+        <v>153</v>
       </c>
       <c r="C40" s="5" t="s">
-        <v>156</v>
+        <v>152</v>
       </c>
       <c r="D40" t="s">
-        <v>148</v>
+        <v>144</v>
       </c>
       <c r="E40" t="s">
+        <v>147</v>
+      </c>
+      <c r="F40" t="s">
         <v>151</v>
       </c>
-      <c r="F40" t="s">
-        <v>155</v>
-      </c>
       <c r="G40" s="6" t="s">
         <v>13</v>
       </c>
       <c r="H40" t="s">
-        <v>154</v>
+        <v>150</v>
       </c>
     </row>
     <row r="41" spans="1:8" x14ac:dyDescent="0.35">
@@ -2501,25 +2516,25 @@
         <v>1</v>
       </c>
       <c r="B41" t="s">
+        <v>167</v>
+      </c>
+      <c r="C41" s="5" t="s">
         <v>171</v>
       </c>
-      <c r="C41" s="5" t="s">
-        <v>175</v>
-      </c>
       <c r="D41" t="s">
+        <v>164</v>
+      </c>
+      <c r="E41" t="s">
         <v>168</v>
       </c>
-      <c r="E41" t="s">
-        <v>172</v>
-      </c>
       <c r="F41" s="7" t="s">
-        <v>174</v>
+        <v>170</v>
       </c>
       <c r="G41" s="6" t="s">
         <v>13</v>
       </c>
       <c r="H41" t="s">
-        <v>173</v>
+        <v>169</v>
       </c>
     </row>
     <row r="42" spans="1:8" x14ac:dyDescent="0.35">
@@ -2527,25 +2542,25 @@
         <v>1</v>
       </c>
       <c r="B42" t="s">
-        <v>178</v>
+        <v>174</v>
       </c>
       <c r="C42" s="5" t="s">
-        <v>177</v>
+        <v>173</v>
       </c>
       <c r="D42" t="s">
-        <v>169</v>
+        <v>165</v>
       </c>
       <c r="E42" t="s">
+        <v>168</v>
+      </c>
+      <c r="F42" t="s">
+        <v>175</v>
+      </c>
+      <c r="G42" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="H42" t="s">
         <v>172</v>
-      </c>
-      <c r="F42" t="s">
-        <v>179</v>
-      </c>
-      <c r="G42" s="6" t="s">
-        <v>13</v>
-      </c>
-      <c r="H42" t="s">
-        <v>176</v>
       </c>
     </row>
     <row r="43" spans="1:8" x14ac:dyDescent="0.35">
@@ -2553,25 +2568,25 @@
         <v>4</v>
       </c>
       <c r="B43" t="s">
-        <v>158</v>
+        <v>154</v>
       </c>
       <c r="C43" s="5" t="s">
+        <v>198</v>
+      </c>
+      <c r="D43" t="s">
+        <v>156</v>
+      </c>
+      <c r="E43" t="s">
+        <v>200</v>
+      </c>
+      <c r="F43" t="s">
         <v>202</v>
       </c>
-      <c r="D43" t="s">
-        <v>160</v>
-      </c>
-      <c r="E43" t="s">
-        <v>204</v>
-      </c>
-      <c r="F43" t="s">
-        <v>206</v>
-      </c>
       <c r="G43" s="6" t="s">
         <v>13</v>
       </c>
       <c r="H43" s="7" t="s">
-        <v>207</v>
+        <v>203</v>
       </c>
     </row>
     <row r="44" spans="1:8" x14ac:dyDescent="0.35">
@@ -2579,25 +2594,25 @@
         <v>4</v>
       </c>
       <c r="B44" t="s">
-        <v>161</v>
+        <v>157</v>
       </c>
       <c r="C44" s="5" t="s">
-        <v>202</v>
+        <v>198</v>
       </c>
       <c r="D44" t="s">
-        <v>164</v>
+        <v>160</v>
       </c>
       <c r="E44" t="s">
+        <v>200</v>
+      </c>
+      <c r="F44" t="s">
+        <v>205</v>
+      </c>
+      <c r="G44" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="H44" s="7" t="s">
         <v>204</v>
-      </c>
-      <c r="F44" t="s">
-        <v>209</v>
-      </c>
-      <c r="G44" s="6" t="s">
-        <v>13</v>
-      </c>
-      <c r="H44" s="7" t="s">
-        <v>208</v>
       </c>
     </row>
     <row r="45" spans="1:8" x14ac:dyDescent="0.35">
@@ -2605,25 +2620,25 @@
         <v>5</v>
       </c>
       <c r="B45" t="s">
-        <v>162</v>
+        <v>158</v>
       </c>
       <c r="C45" s="5" t="s">
-        <v>182</v>
+        <v>178</v>
       </c>
       <c r="D45" t="s">
-        <v>212</v>
+        <v>208</v>
       </c>
       <c r="E45" t="s">
-        <v>180</v>
+        <v>176</v>
       </c>
       <c r="F45" t="s">
-        <v>183</v>
+        <v>179</v>
       </c>
       <c r="G45" s="6" t="s">
         <v>13</v>
       </c>
       <c r="H45" t="s">
-        <v>181</v>
+        <v>177</v>
       </c>
     </row>
     <row r="46" spans="1:8" x14ac:dyDescent="0.35">
@@ -2631,25 +2646,25 @@
         <v>3</v>
       </c>
       <c r="B46" t="s">
-        <v>163</v>
+        <v>159</v>
       </c>
       <c r="C46" s="5" t="s">
-        <v>202</v>
+        <v>198</v>
       </c>
       <c r="D46" t="s">
-        <v>165</v>
+        <v>161</v>
       </c>
       <c r="E46" t="s">
-        <v>204</v>
+        <v>200</v>
       </c>
       <c r="F46" s="7" t="s">
-        <v>211</v>
+        <v>207</v>
       </c>
       <c r="G46" s="6" t="s">
         <v>13</v>
       </c>
       <c r="H46" t="s">
-        <v>210</v>
+        <v>206</v>
       </c>
     </row>
     <row r="47" spans="1:8" x14ac:dyDescent="0.35">
@@ -2657,25 +2672,25 @@
         <v>1</v>
       </c>
       <c r="B47" t="s">
-        <v>166</v>
+        <v>162</v>
       </c>
       <c r="C47" s="5" t="s">
-        <v>213</v>
+        <v>209</v>
       </c>
       <c r="D47" t="s">
-        <v>167</v>
+        <v>163</v>
       </c>
       <c r="E47" t="s">
-        <v>180</v>
+        <v>176</v>
       </c>
       <c r="F47" t="s">
-        <v>215</v>
+        <v>211</v>
       </c>
       <c r="G47" s="6" t="s">
         <v>13</v>
       </c>
       <c r="H47" t="s">
-        <v>214</v>
+        <v>210</v>
       </c>
     </row>
     <row r="48" spans="1:8" x14ac:dyDescent="0.35">
@@ -2683,16 +2698,16 @@
         <v>2</v>
       </c>
       <c r="B48" s="11" t="s">
-        <v>198</v>
+        <v>194</v>
       </c>
       <c r="C48" s="12" t="s">
-        <v>159</v>
+        <v>155</v>
       </c>
       <c r="D48" s="11" t="s">
-        <v>184</v>
+        <v>180</v>
       </c>
       <c r="E48" s="15" t="s">
-        <v>201</v>
+        <v>197</v>
       </c>
       <c r="F48" s="15"/>
       <c r="G48" s="15"/>
@@ -2703,25 +2718,25 @@
         <v>25</v>
       </c>
       <c r="B49" t="s">
+        <v>195</v>
+      </c>
+      <c r="C49" s="5" t="s">
+        <v>198</v>
+      </c>
+      <c r="D49" t="s">
+        <v>181</v>
+      </c>
+      <c r="E49" t="s">
+        <v>200</v>
+      </c>
+      <c r="F49" s="6" t="s">
+        <v>201</v>
+      </c>
+      <c r="G49" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="H49" s="6" t="s">
         <v>199</v>
-      </c>
-      <c r="C49" s="5" t="s">
-        <v>202</v>
-      </c>
-      <c r="D49" t="s">
-        <v>185</v>
-      </c>
-      <c r="E49" t="s">
-        <v>204</v>
-      </c>
-      <c r="F49" s="6" t="s">
-        <v>205</v>
-      </c>
-      <c r="G49" s="6" t="s">
-        <v>13</v>
-      </c>
-      <c r="H49" s="6" t="s">
-        <v>203</v>
       </c>
       <c r="I49" s="6"/>
     </row>
@@ -2730,25 +2745,25 @@
         <v>1</v>
       </c>
       <c r="B50" t="s">
-        <v>200</v>
+        <v>196</v>
       </c>
       <c r="C50" s="5" t="s">
+        <v>212</v>
+      </c>
+      <c r="D50" t="s">
+        <v>217</v>
+      </c>
+      <c r="E50" t="s">
+        <v>215</v>
+      </c>
+      <c r="F50" t="s">
         <v>216</v>
       </c>
-      <c r="D50" t="s">
-        <v>221</v>
-      </c>
-      <c r="E50" t="s">
-        <v>219</v>
-      </c>
-      <c r="F50" t="s">
-        <v>220</v>
-      </c>
       <c r="G50" s="6" t="s">
         <v>13</v>
       </c>
       <c r="H50" t="s">
-        <v>218</v>
+        <v>214</v>
       </c>
     </row>
     <row r="51" spans="1:10" x14ac:dyDescent="0.35">
@@ -2756,25 +2771,25 @@
         <v>4</v>
       </c>
       <c r="B51" t="s">
-        <v>200</v>
+        <v>196</v>
       </c>
       <c r="C51" s="5" t="s">
-        <v>217</v>
+        <v>213</v>
       </c>
       <c r="D51" t="s">
-        <v>222</v>
+        <v>218</v>
       </c>
       <c r="E51" t="s">
-        <v>230</v>
+        <v>226</v>
       </c>
       <c r="F51" t="s">
-        <v>231</v>
+        <v>227</v>
       </c>
       <c r="G51" s="6" t="s">
         <v>13</v>
       </c>
       <c r="H51" t="s">
-        <v>229</v>
+        <v>225</v>
       </c>
     </row>
     <row r="52" spans="1:10" ht="29" x14ac:dyDescent="0.35">
@@ -2782,37 +2797,59 @@
         <v>1</v>
       </c>
       <c r="B52" s="7" t="s">
-        <v>284</v>
+        <v>280</v>
       </c>
       <c r="C52" s="5" t="s">
-        <v>228</v>
+        <v>224</v>
       </c>
       <c r="D52" t="s">
+        <v>219</v>
+      </c>
+      <c r="E52" t="s">
+        <v>222</v>
+      </c>
+      <c r="F52" t="s">
+        <v>221</v>
+      </c>
+      <c r="G52" s="6" t="s">
+        <v>220</v>
+      </c>
+      <c r="H52" s="9" t="s">
         <v>223</v>
       </c>
-      <c r="E52" t="s">
-        <v>226</v>
-      </c>
-      <c r="F52" t="s">
-        <v>225</v>
-      </c>
-      <c r="G52" s="6" t="s">
-        <v>224</v>
-      </c>
-      <c r="H52" s="9" t="s">
-        <v>227</v>
-      </c>
     </row>
     <row r="53" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="C53" s="5"/>
-      <c r="G53" s="6"/>
+      <c r="A53">
+        <v>1</v>
+      </c>
+      <c r="B53" s="5" t="s">
+        <v>353</v>
+      </c>
+      <c r="C53" s="5" t="s">
+        <v>354</v>
+      </c>
+      <c r="D53" t="s">
+        <v>352</v>
+      </c>
+      <c r="E53" t="s">
+        <v>355</v>
+      </c>
+      <c r="F53" t="s">
+        <v>356</v>
+      </c>
+      <c r="G53" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="H53" t="s">
+        <v>357</v>
+      </c>
     </row>
     <row r="54" spans="1:10" x14ac:dyDescent="0.35">
       <c r="C54" s="5"/>
     </row>
     <row r="55" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A55" s="10" t="s">
-        <v>285</v>
+        <v>281</v>
       </c>
       <c r="B55" s="10"/>
       <c r="C55"/>
@@ -2852,31 +2889,31 @@
         <v>1</v>
       </c>
       <c r="B58" t="s">
-        <v>290</v>
+        <v>286</v>
       </c>
       <c r="C58" s="5" t="s">
-        <v>249</v>
+        <v>245</v>
       </c>
       <c r="D58" t="s">
-        <v>299</v>
+        <v>295</v>
       </c>
       <c r="E58" t="s">
-        <v>250</v>
+        <v>246</v>
       </c>
       <c r="F58" t="s">
-        <v>251</v>
+        <v>247</v>
       </c>
       <c r="G58" t="s">
         <v>13</v>
       </c>
       <c r="H58" t="s">
-        <v>252</v>
+        <v>248</v>
       </c>
       <c r="I58" s="13" t="s">
-        <v>170</v>
+        <v>166</v>
       </c>
       <c r="J58" s="13" t="s">
-        <v>170</v>
+        <v>166</v>
       </c>
     </row>
     <row r="59" spans="1:10" s="4" customFormat="1" ht="29" x14ac:dyDescent="0.35">
@@ -2884,31 +2921,31 @@
         <v>9</v>
       </c>
       <c r="B59" t="s">
-        <v>291</v>
+        <v>287</v>
       </c>
       <c r="C59" s="5" t="s">
-        <v>253</v>
+        <v>249</v>
       </c>
       <c r="D59" s="7" t="s">
-        <v>261</v>
+        <v>257</v>
       </c>
       <c r="E59" t="s">
+        <v>246</v>
+      </c>
+      <c r="F59" t="s">
         <v>250</v>
       </c>
-      <c r="F59" t="s">
-        <v>254</v>
-      </c>
       <c r="G59" t="s">
         <v>13</v>
       </c>
       <c r="H59" t="s">
-        <v>255</v>
+        <v>251</v>
       </c>
       <c r="I59" s="13" t="s">
-        <v>170</v>
+        <v>166</v>
       </c>
       <c r="J59" s="13" t="s">
-        <v>170</v>
+        <v>166</v>
       </c>
     </row>
     <row r="60" spans="1:10" s="4" customFormat="1" x14ac:dyDescent="0.35">
@@ -2916,25 +2953,25 @@
         <v>1</v>
       </c>
       <c r="B60" t="s">
-        <v>292</v>
+        <v>288</v>
       </c>
       <c r="C60" s="5" t="s">
-        <v>259</v>
+        <v>255</v>
       </c>
       <c r="D60" t="s">
         <v>76</v>
       </c>
       <c r="E60" t="s">
-        <v>250</v>
+        <v>246</v>
       </c>
       <c r="F60" t="s">
-        <v>267</v>
+        <v>263</v>
       </c>
       <c r="G60" t="s">
         <v>13</v>
       </c>
       <c r="H60" t="s">
-        <v>276</v>
+        <v>272</v>
       </c>
       <c r="I60" s="13"/>
       <c r="J60" s="13"/>
@@ -2944,31 +2981,31 @@
         <v>6</v>
       </c>
       <c r="B61" t="s">
-        <v>293</v>
+        <v>289</v>
       </c>
       <c r="C61" s="5" t="s">
+        <v>252</v>
+      </c>
+      <c r="D61" s="7" t="s">
         <v>256</v>
       </c>
-      <c r="D61" s="7" t="s">
-        <v>260</v>
-      </c>
       <c r="E61" t="s">
-        <v>250</v>
+        <v>246</v>
       </c>
       <c r="F61" t="s">
-        <v>257</v>
+        <v>253</v>
       </c>
       <c r="G61" t="s">
         <v>13</v>
       </c>
       <c r="H61" t="s">
-        <v>258</v>
+        <v>254</v>
       </c>
       <c r="I61" s="13" t="s">
-        <v>170</v>
+        <v>166</v>
       </c>
       <c r="J61" s="13" t="s">
-        <v>170</v>
+        <v>166</v>
       </c>
     </row>
     <row r="62" spans="1:10" s="4" customFormat="1" x14ac:dyDescent="0.35">
@@ -2976,25 +3013,25 @@
         <v>2</v>
       </c>
       <c r="B62" t="s">
-        <v>286</v>
+        <v>282</v>
       </c>
       <c r="C62" s="5" t="s">
-        <v>262</v>
+        <v>258</v>
       </c>
       <c r="D62" s="7" t="s">
-        <v>302</v>
+        <v>298</v>
       </c>
       <c r="E62" t="s">
-        <v>250</v>
+        <v>246</v>
       </c>
       <c r="F62" t="s">
-        <v>275</v>
+        <v>271</v>
       </c>
       <c r="G62" t="s">
         <v>13</v>
       </c>
       <c r="H62" s="7" t="s">
-        <v>274</v>
+        <v>270</v>
       </c>
       <c r="I62" s="13"/>
       <c r="J62" s="13"/>
@@ -3004,25 +3041,25 @@
         <v>1</v>
       </c>
       <c r="B63" t="s">
-        <v>287</v>
+        <v>283</v>
       </c>
       <c r="C63" s="5" t="s">
-        <v>263</v>
+        <v>259</v>
       </c>
       <c r="D63" s="7" t="s">
         <v>87</v>
       </c>
       <c r="E63" t="s">
-        <v>250</v>
+        <v>246</v>
       </c>
       <c r="F63" t="s">
-        <v>273</v>
+        <v>269</v>
       </c>
       <c r="G63" t="s">
         <v>13</v>
       </c>
       <c r="H63" t="s">
-        <v>272</v>
+        <v>268</v>
       </c>
       <c r="I63" s="13"/>
       <c r="J63" s="13"/>
@@ -3032,25 +3069,25 @@
         <v>4</v>
       </c>
       <c r="B64" t="s">
-        <v>288</v>
+        <v>284</v>
       </c>
       <c r="C64" s="5" t="s">
-        <v>264</v>
+        <v>260</v>
       </c>
       <c r="D64" s="7" t="s">
-        <v>303</v>
+        <v>299</v>
       </c>
       <c r="E64" t="s">
-        <v>250</v>
+        <v>246</v>
       </c>
       <c r="F64" t="s">
-        <v>270</v>
+        <v>266</v>
       </c>
       <c r="G64" t="s">
         <v>13</v>
       </c>
       <c r="H64" t="s">
-        <v>271</v>
+        <v>267</v>
       </c>
       <c r="I64" s="13"/>
       <c r="J64" s="13"/>
@@ -3060,25 +3097,25 @@
         <v>2</v>
       </c>
       <c r="B65" t="s">
-        <v>289</v>
+        <v>285</v>
       </c>
       <c r="C65" s="5" t="s">
+        <v>261</v>
+      </c>
+      <c r="D65" t="s">
+        <v>262</v>
+      </c>
+      <c r="E65" t="s">
+        <v>246</v>
+      </c>
+      <c r="F65" t="s">
+        <v>264</v>
+      </c>
+      <c r="G65" t="s">
+        <v>13</v>
+      </c>
+      <c r="H65" t="s">
         <v>265</v>
-      </c>
-      <c r="D65" t="s">
-        <v>266</v>
-      </c>
-      <c r="E65" t="s">
-        <v>250</v>
-      </c>
-      <c r="F65" t="s">
-        <v>268</v>
-      </c>
-      <c r="G65" t="s">
-        <v>13</v>
-      </c>
-      <c r="H65" t="s">
-        <v>269</v>
       </c>
     </row>
     <row r="66" spans="1:9" s="4" customFormat="1" ht="29" x14ac:dyDescent="0.35">
@@ -3086,28 +3123,28 @@
         <v>1</v>
       </c>
       <c r="B66" s="7" t="s">
-        <v>282</v>
+        <v>278</v>
       </c>
       <c r="C66" s="5" t="s">
-        <v>283</v>
+        <v>279</v>
       </c>
       <c r="D66" s="7" t="s">
         <v>91</v>
       </c>
       <c r="E66" t="s">
-        <v>278</v>
+        <v>274</v>
       </c>
       <c r="F66" s="14" t="s">
-        <v>279</v>
+        <v>275</v>
       </c>
       <c r="G66" t="s">
         <v>13</v>
       </c>
       <c r="H66" s="7" t="s">
-        <v>277</v>
+        <v>273</v>
       </c>
       <c r="I66" s="13" t="s">
-        <v>170</v>
+        <v>166</v>
       </c>
     </row>
     <row r="67" spans="1:9" x14ac:dyDescent="0.35">
@@ -3115,25 +3152,25 @@
         <v>2</v>
       </c>
       <c r="B67" s="7" t="s">
-        <v>280</v>
+        <v>276</v>
       </c>
       <c r="C67" s="5" t="s">
-        <v>351</v>
+        <v>347</v>
       </c>
       <c r="D67" t="s">
-        <v>245</v>
+        <v>241</v>
       </c>
       <c r="E67" t="s">
-        <v>224</v>
+        <v>220</v>
       </c>
       <c r="F67" t="s">
-        <v>244</v>
+        <v>240</v>
       </c>
       <c r="G67" t="s">
-        <v>224</v>
+        <v>220</v>
       </c>
       <c r="H67" s="9" t="s">
-        <v>243</v>
+        <v>239</v>
       </c>
     </row>
     <row r="68" spans="1:9" x14ac:dyDescent="0.35">
@@ -3141,25 +3178,25 @@
         <v>1</v>
       </c>
       <c r="B68" s="7" t="s">
+        <v>290</v>
+      </c>
+      <c r="C68" t="s">
         <v>294</v>
       </c>
-      <c r="C68" t="s">
-        <v>298</v>
-      </c>
       <c r="D68" t="s">
-        <v>304</v>
+        <v>300</v>
       </c>
       <c r="E68" t="s">
-        <v>296</v>
+        <v>292</v>
       </c>
       <c r="F68" t="s">
-        <v>297</v>
+        <v>293</v>
       </c>
       <c r="G68" t="s">
         <v>13</v>
       </c>
       <c r="H68" s="9" t="s">
-        <v>295</v>
+        <v>291</v>
       </c>
     </row>
     <row r="69" spans="1:9" x14ac:dyDescent="0.35">
@@ -3167,25 +3204,25 @@
         <v>1</v>
       </c>
       <c r="B69" s="7" t="s">
-        <v>281</v>
+        <v>277</v>
       </c>
       <c r="C69" s="5" t="s">
-        <v>352</v>
+        <v>348</v>
       </c>
       <c r="D69" t="s">
-        <v>246</v>
+        <v>242</v>
       </c>
       <c r="E69" s="5" t="s">
-        <v>224</v>
+        <v>220</v>
       </c>
       <c r="F69" t="s">
-        <v>248</v>
+        <v>244</v>
       </c>
       <c r="G69" s="5" t="s">
-        <v>224</v>
+        <v>220</v>
       </c>
       <c r="H69" s="9" t="s">
-        <v>247</v>
+        <v>243</v>
       </c>
     </row>
     <row r="70" spans="1:9" ht="29" x14ac:dyDescent="0.35">
@@ -3193,28 +3230,28 @@
         <v>1</v>
       </c>
       <c r="B70" s="7" t="s">
+        <v>297</v>
+      </c>
+      <c r="C70" s="5" t="s">
+        <v>308</v>
+      </c>
+      <c r="D70" t="s">
+        <v>303</v>
+      </c>
+      <c r="E70" t="s">
         <v>301</v>
       </c>
-      <c r="C70" s="5" t="s">
-        <v>312</v>
-      </c>
-      <c r="D70" t="s">
-        <v>307</v>
-      </c>
-      <c r="E70" t="s">
-        <v>305</v>
-      </c>
       <c r="F70" t="s">
-        <v>308</v>
+        <v>304</v>
       </c>
       <c r="G70" t="s">
         <v>13</v>
       </c>
       <c r="H70" s="9" t="s">
-        <v>306</v>
+        <v>302</v>
       </c>
       <c r="I70" s="6" t="s">
-        <v>170</v>
+        <v>166</v>
       </c>
     </row>
     <row r="71" spans="1:9" x14ac:dyDescent="0.35">
@@ -3222,25 +3259,25 @@
         <v>1</v>
       </c>
       <c r="B71" s="7" t="s">
-        <v>300</v>
+        <v>296</v>
       </c>
       <c r="C71" s="5" t="s">
-        <v>313</v>
+        <v>309</v>
       </c>
       <c r="D71" t="s">
+        <v>303</v>
+      </c>
+      <c r="E71" t="s">
+        <v>306</v>
+      </c>
+      <c r="F71" t="s">
         <v>307</v>
       </c>
-      <c r="E71" t="s">
-        <v>310</v>
-      </c>
-      <c r="F71" t="s">
-        <v>311</v>
-      </c>
       <c r="G71" t="s">
         <v>13</v>
       </c>
       <c r="H71" t="s">
-        <v>309</v>
+        <v>305</v>
       </c>
     </row>
     <row r="72" spans="1:9" x14ac:dyDescent="0.35">
@@ -3248,25 +3285,25 @@
         <v>1</v>
       </c>
       <c r="B72" s="7" t="s">
-        <v>342</v>
+        <v>338</v>
       </c>
       <c r="C72" s="5" t="s">
-        <v>344</v>
+        <v>340</v>
       </c>
       <c r="D72" t="s">
-        <v>317</v>
+        <v>313</v>
       </c>
       <c r="E72" t="s">
-        <v>326</v>
+        <v>322</v>
       </c>
       <c r="F72" s="7" t="s">
-        <v>345</v>
+        <v>341</v>
       </c>
       <c r="G72" t="s">
         <v>13</v>
       </c>
       <c r="H72" t="s">
-        <v>343</v>
+        <v>339</v>
       </c>
     </row>
     <row r="73" spans="1:9" x14ac:dyDescent="0.35">
@@ -3274,25 +3311,25 @@
         <v>2</v>
       </c>
       <c r="B73" s="7" t="s">
-        <v>334</v>
+        <v>330</v>
       </c>
       <c r="C73" s="5" t="s">
-        <v>349</v>
+        <v>345</v>
       </c>
       <c r="D73" t="s">
-        <v>331</v>
+        <v>327</v>
       </c>
       <c r="E73" t="s">
-        <v>315</v>
+        <v>311</v>
       </c>
       <c r="F73" s="7" t="s">
-        <v>330</v>
+        <v>326</v>
       </c>
       <c r="G73" t="s">
         <v>13</v>
       </c>
       <c r="H73" t="s">
-        <v>329</v>
+        <v>325</v>
       </c>
     </row>
     <row r="74" spans="1:9" x14ac:dyDescent="0.35">
@@ -3300,28 +3337,28 @@
         <v>2</v>
       </c>
       <c r="B74" s="7" t="s">
-        <v>325</v>
+        <v>321</v>
       </c>
       <c r="C74" s="5" t="s">
-        <v>350</v>
+        <v>346</v>
       </c>
       <c r="D74" t="s">
+        <v>320</v>
+      </c>
+      <c r="E74" t="s">
+        <v>322</v>
+      </c>
+      <c r="F74" t="s">
         <v>324</v>
       </c>
-      <c r="E74" t="s">
-        <v>326</v>
-      </c>
-      <c r="F74" t="s">
-        <v>328</v>
-      </c>
       <c r="G74" t="s">
         <v>13</v>
       </c>
       <c r="H74" s="6" t="s">
-        <v>327</v>
+        <v>323</v>
       </c>
       <c r="I74" s="6" t="s">
-        <v>170</v>
+        <v>166</v>
       </c>
     </row>
     <row r="75" spans="1:9" x14ac:dyDescent="0.35">
@@ -3329,25 +3366,25 @@
         <v>1</v>
       </c>
       <c r="B75" s="7" t="s">
-        <v>319</v>
+        <v>315</v>
       </c>
       <c r="C75" s="5" t="s">
-        <v>348</v>
+        <v>344</v>
       </c>
       <c r="D75" t="s">
-        <v>318</v>
+        <v>314</v>
       </c>
       <c r="E75" t="s">
-        <v>315</v>
+        <v>311</v>
       </c>
       <c r="F75" s="7" t="s">
-        <v>333</v>
+        <v>329</v>
       </c>
       <c r="G75" t="s">
         <v>13</v>
       </c>
       <c r="H75" t="s">
-        <v>332</v>
+        <v>328</v>
       </c>
     </row>
     <row r="76" spans="1:9" x14ac:dyDescent="0.35">
@@ -3355,25 +3392,25 @@
         <v>1</v>
       </c>
       <c r="B76" s="7" t="s">
-        <v>320</v>
+        <v>316</v>
       </c>
       <c r="C76" s="5" t="s">
-        <v>347</v>
+        <v>343</v>
       </c>
       <c r="D76" t="s">
-        <v>314</v>
+        <v>310</v>
       </c>
       <c r="E76" t="s">
-        <v>315</v>
+        <v>311</v>
       </c>
       <c r="F76" t="s">
-        <v>321</v>
+        <v>317</v>
       </c>
       <c r="G76" t="s">
         <v>13</v>
       </c>
       <c r="H76" s="7" t="s">
-        <v>316</v>
+        <v>312</v>
       </c>
     </row>
     <row r="77" spans="1:9" x14ac:dyDescent="0.35">
@@ -3381,25 +3418,25 @@
         <v>2</v>
       </c>
       <c r="B77" s="7" t="s">
-        <v>346</v>
+        <v>342</v>
       </c>
       <c r="C77" s="5" t="s">
-        <v>337</v>
+        <v>333</v>
       </c>
       <c r="D77" t="s">
-        <v>322</v>
+        <v>318</v>
       </c>
       <c r="E77" t="s">
-        <v>335</v>
+        <v>331</v>
       </c>
       <c r="F77" s="9" t="s">
-        <v>338</v>
+        <v>334</v>
       </c>
       <c r="G77" t="s">
         <v>13</v>
       </c>
       <c r="H77" s="7" t="s">
-        <v>336</v>
+        <v>332</v>
       </c>
     </row>
     <row r="78" spans="1:9" x14ac:dyDescent="0.35">
@@ -3407,25 +3444,25 @@
         <v>2</v>
       </c>
       <c r="B78" s="7" t="s">
-        <v>323</v>
+        <v>319</v>
       </c>
       <c r="C78" s="5" t="s">
-        <v>339</v>
+        <v>335</v>
       </c>
       <c r="D78" t="s">
-        <v>322</v>
+        <v>318</v>
       </c>
       <c r="E78" t="s">
-        <v>315</v>
+        <v>311</v>
       </c>
       <c r="F78" t="s">
-        <v>341</v>
+        <v>337</v>
       </c>
       <c r="G78" t="s">
         <v>13</v>
       </c>
       <c r="H78" t="s">
-        <v>340</v>
+        <v>336</v>
       </c>
     </row>
     <row r="79" spans="1:9" x14ac:dyDescent="0.35">

--- a/hw/SBC1802 BOM.xlsx
+++ b/hw/SBC1802 BOM.xlsx
@@ -1,24 +1,18 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28429"/>
-  <workbookPr defaultThemeVersion="166925"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\fours\Git\SBC1802\hw\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7EA714AC-C0F6-4F9C-9C28-0F5DD50A1606}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="7" rupBuild="4507"/>
+  <workbookPr/>
   <bookViews>
-    <workbookView xWindow="380" yWindow="380" windowWidth="17910" windowHeight="10170" xr2:uid="{E6317DB6-1395-40AB-B574-B66DE8210E28}"/>
+    <workbookView xWindow="384" yWindow="384" windowWidth="17916" windowHeight="10176"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
     <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="191029"/>
-  <extLst>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
+  <calcPr calcId="125725"/>
+  <extLst xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main">
+    <ext uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
@@ -520,9 +514,6 @@
     <t>C3,C4,C11,C12</t>
   </si>
   <si>
-    <t>C13,C14,C19</t>
-  </si>
-  <si>
     <t>10uF</t>
   </si>
   <si>
@@ -544,15 +535,6 @@
     <t>ECS</t>
   </si>
   <si>
-    <t>X1003-ND</t>
-  </si>
-  <si>
-    <t>ECS-25-S-1X</t>
-  </si>
-  <si>
-    <t>Crystal, 2.5000 MHz</t>
-  </si>
-  <si>
     <t>X1014-ND</t>
   </si>
   <si>
@@ -577,9 +559,6 @@
     <t>TAP105K025SRW</t>
   </si>
   <si>
-    <t>C15,C16</t>
-  </si>
-  <si>
     <t>C20-C44</t>
   </si>
   <si>
@@ -661,9 +640,6 @@
     <t>C315C102K1R5TA</t>
   </si>
   <si>
-    <t>C7,C8,C9,C10,C17</t>
-  </si>
-  <si>
     <t>Capacitor, Tantalum, 16V</t>
   </si>
   <si>
@@ -700,18 +676,6 @@
     <t>Jameco</t>
   </si>
   <si>
-    <t>HDSP-311G</t>
-  </si>
-  <si>
-    <t>HP</t>
-  </si>
-  <si>
-    <t>2320639</t>
-  </si>
-  <si>
-    <t>7 Segment, Green, 0.40", Common Anode, 2.06V, 10ma, DIP-14</t>
-  </si>
-  <si>
     <t>1080-1041-ND</t>
   </si>
   <si>
@@ -877,9 +841,6 @@
     <t>4 pin socket in 14-DIP frame 0.3"</t>
   </si>
   <si>
-    <t>7 Segment Display</t>
-  </si>
-  <si>
     <t>Sockets, Switches and Connectors</t>
   </si>
   <si>
@@ -1109,13 +1070,46 @@
   </si>
   <si>
     <t>F5566CT-ND</t>
+  </si>
+  <si>
+    <t>Crystal, 5.0000 MHz</t>
+  </si>
+  <si>
+    <t>ECS-50-S-1X</t>
+  </si>
+  <si>
+    <t>X1026-ND</t>
+  </si>
+  <si>
+    <t>C14,C15,C16</t>
+  </si>
+  <si>
+    <t>C7,C8,C9,C10,C17,C19</t>
+  </si>
+  <si>
+    <t>C13</t>
+  </si>
+  <si>
+    <t>LTA-1000HR</t>
+  </si>
+  <si>
+    <t>160-1066-ND</t>
+  </si>
+  <si>
+    <t>Lite-On</t>
+  </si>
+  <si>
+    <t>LED Bargraph</t>
+  </si>
+  <si>
+    <t>Display</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="5" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <fonts count="5">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1286,7 +1280,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
+        <a:latin typeface="Calibri Light"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="游ゴシック Light"/>
@@ -1338,7 +1332,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="游ゴシック"/>
@@ -1532,42 +1526,42 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FC01C239-1DEB-41A7-90F5-CE98D6488A75}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
   <dimension ref="A2:K79"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A62" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="H72" sqref="H72"/>
+    <sheetView tabSelected="1" topLeftCell="A29" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="B40" sqref="B40"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="14.4"/>
   <cols>
-    <col min="2" max="2" width="13.453125" customWidth="1"/>
-    <col min="3" max="3" width="34.453125" style="1" customWidth="1"/>
-    <col min="4" max="4" width="18.7265625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="11.26953125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="20.26953125" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="20.453125" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="9.81640625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="13.44140625" customWidth="1"/>
+    <col min="3" max="3" width="34.44140625" style="1" customWidth="1"/>
+    <col min="4" max="4" width="18.77734375" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="11.21875" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="20.21875" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="20.44140625" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="9.77734375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:11">
       <c r="A2" s="10" t="s">
         <v>123</v>
       </c>
       <c r="B2" s="10"/>
       <c r="C2"/>
     </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:11">
       <c r="A3" s="1" t="s">
         <v>0</v>
       </c>
@@ -1593,7 +1587,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:11">
       <c r="A4">
         <v>1</v>
       </c>
@@ -1619,7 +1613,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:11">
       <c r="A5">
         <v>1</v>
       </c>
@@ -1646,7 +1640,7 @@
       </c>
       <c r="K5" s="3"/>
     </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:11">
       <c r="A6">
         <v>1</v>
       </c>
@@ -1672,7 +1666,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:11">
       <c r="A7">
         <v>2</v>
       </c>
@@ -1698,7 +1692,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:11">
       <c r="A8">
         <v>1</v>
       </c>
@@ -1724,7 +1718,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:11">
       <c r="A9">
         <v>1</v>
       </c>
@@ -1750,7 +1744,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:11">
       <c r="A10">
         <v>1</v>
       </c>
@@ -1776,7 +1770,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:11">
       <c r="A11">
         <v>2</v>
       </c>
@@ -1802,7 +1796,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:11">
       <c r="A12">
         <v>2</v>
       </c>
@@ -1828,7 +1822,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:11">
       <c r="A13">
         <v>1</v>
       </c>
@@ -1854,7 +1848,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:11">
       <c r="A14">
         <v>1</v>
       </c>
@@ -1880,7 +1874,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:11">
       <c r="A15">
         <v>1</v>
       </c>
@@ -1906,7 +1900,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:11">
       <c r="A16">
         <v>1</v>
       </c>
@@ -1932,7 +1926,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="17" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:8">
       <c r="A17">
         <v>1</v>
       </c>
@@ -1958,7 +1952,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="18" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:8">
       <c r="A18">
         <v>4</v>
       </c>
@@ -1984,7 +1978,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="19" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:8">
       <c r="A19">
         <v>1</v>
       </c>
@@ -2010,7 +2004,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="20" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:8">
       <c r="A20">
         <v>1</v>
       </c>
@@ -2024,19 +2018,19 @@
         <v>91</v>
       </c>
       <c r="E20" t="s">
-        <v>350</v>
+        <v>339</v>
       </c>
       <c r="F20" t="s">
-        <v>351</v>
+        <v>340</v>
       </c>
       <c r="G20" t="s">
         <v>10</v>
       </c>
       <c r="H20" s="7" t="s">
-        <v>351</v>
-      </c>
-    </row>
-    <row r="21" spans="1:8" x14ac:dyDescent="0.35">
+        <v>340</v>
+      </c>
+    </row>
+    <row r="21" spans="1:8">
       <c r="A21">
         <v>2</v>
       </c>
@@ -2062,7 +2056,7 @@
         <v>97</v>
       </c>
     </row>
-    <row r="22" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:8">
       <c r="A22">
         <v>1</v>
       </c>
@@ -2088,7 +2082,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="23" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:8">
       <c r="A23">
         <v>1</v>
       </c>
@@ -2114,7 +2108,7 @@
         <v>107</v>
       </c>
     </row>
-    <row r="24" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:8">
       <c r="A24">
         <v>1</v>
       </c>
@@ -2140,7 +2134,7 @@
         <v>117</v>
       </c>
     </row>
-    <row r="25" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:8">
       <c r="A25">
         <v>1</v>
       </c>
@@ -2166,7 +2160,7 @@
         <v>114</v>
       </c>
     </row>
-    <row r="26" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:8">
       <c r="A26">
         <v>1</v>
       </c>
@@ -2192,14 +2186,14 @@
         <v>122</v>
       </c>
     </row>
-    <row r="28" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="28" spans="1:8">
       <c r="A28" s="10" t="s">
         <v>124</v>
       </c>
       <c r="B28" s="10"/>
       <c r="C28"/>
     </row>
-    <row r="29" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="29" spans="1:8">
       <c r="A29" s="1" t="s">
         <v>0</v>
       </c>
@@ -2225,7 +2219,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="30" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="30" spans="1:8">
       <c r="A30">
         <v>2</v>
       </c>
@@ -2233,7 +2227,7 @@
         <v>132</v>
       </c>
       <c r="C30" s="5" t="s">
-        <v>185</v>
+        <v>180</v>
       </c>
       <c r="D30" t="s">
         <v>125</v>
@@ -2242,16 +2236,16 @@
         <v>126</v>
       </c>
       <c r="F30" t="s">
-        <v>183</v>
+        <v>178</v>
       </c>
       <c r="G30" s="6" t="s">
         <v>13</v>
       </c>
       <c r="H30" s="7" t="s">
-        <v>182</v>
-      </c>
-    </row>
-    <row r="31" spans="1:8" x14ac:dyDescent="0.35">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="31" spans="1:8">
       <c r="A31">
         <v>7</v>
       </c>
@@ -2259,25 +2253,25 @@
         <v>134</v>
       </c>
       <c r="C31" s="5" t="s">
-        <v>185</v>
+        <v>180</v>
       </c>
       <c r="D31" t="s">
-        <v>349</v>
+        <v>338</v>
       </c>
       <c r="E31" t="s">
         <v>126</v>
       </c>
       <c r="F31" s="7" t="s">
-        <v>187</v>
+        <v>182</v>
       </c>
       <c r="G31" s="6" t="s">
         <v>13</v>
       </c>
       <c r="H31" t="s">
-        <v>184</v>
-      </c>
-    </row>
-    <row r="32" spans="1:8" x14ac:dyDescent="0.35">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="32" spans="1:8">
       <c r="A32">
         <v>1</v>
       </c>
@@ -2285,7 +2279,7 @@
         <v>127</v>
       </c>
       <c r="C32" s="5" t="s">
-        <v>186</v>
+        <v>181</v>
       </c>
       <c r="D32" t="s">
         <v>128</v>
@@ -2294,16 +2288,16 @@
         <v>126</v>
       </c>
       <c r="F32" t="s">
-        <v>189</v>
+        <v>184</v>
       </c>
       <c r="G32" s="6" t="s">
         <v>13</v>
       </c>
       <c r="H32" t="s">
-        <v>188</v>
-      </c>
-    </row>
-    <row r="33" spans="1:8" x14ac:dyDescent="0.35">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="33" spans="1:8">
       <c r="A33">
         <v>2</v>
       </c>
@@ -2311,7 +2305,7 @@
         <v>133</v>
       </c>
       <c r="C33" s="5" t="s">
-        <v>185</v>
+        <v>180</v>
       </c>
       <c r="D33" t="s">
         <v>129</v>
@@ -2320,16 +2314,16 @@
         <v>126</v>
       </c>
       <c r="F33" t="s">
-        <v>191</v>
+        <v>186</v>
       </c>
       <c r="G33" s="6" t="s">
         <v>13</v>
       </c>
       <c r="H33" t="s">
-        <v>190</v>
-      </c>
-    </row>
-    <row r="34" spans="1:8" x14ac:dyDescent="0.35">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="34" spans="1:8">
       <c r="A34">
         <v>1</v>
       </c>
@@ -2337,7 +2331,7 @@
         <v>135</v>
       </c>
       <c r="C34" s="5" t="s">
-        <v>185</v>
+        <v>180</v>
       </c>
       <c r="D34" t="s">
         <v>130</v>
@@ -2355,7 +2349,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="35" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="35" spans="1:8">
       <c r="A35">
         <v>1</v>
       </c>
@@ -2363,7 +2357,7 @@
         <v>136</v>
       </c>
       <c r="C35" s="5" t="s">
-        <v>185</v>
+        <v>180</v>
       </c>
       <c r="D35" t="s">
         <v>138</v>
@@ -2381,7 +2375,7 @@
         <v>141</v>
       </c>
     </row>
-    <row r="36" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="36" spans="1:8">
       <c r="A36">
         <v>1</v>
       </c>
@@ -2389,7 +2383,7 @@
         <v>137</v>
       </c>
       <c r="C36" s="5" t="s">
-        <v>185</v>
+        <v>180</v>
       </c>
       <c r="D36" t="s">
         <v>139</v>
@@ -2398,68 +2392,68 @@
         <v>126</v>
       </c>
       <c r="F36" t="s">
-        <v>192</v>
+        <v>187</v>
       </c>
       <c r="G36" s="6" t="s">
         <v>13</v>
       </c>
       <c r="H36" t="s">
-        <v>193</v>
-      </c>
-    </row>
-    <row r="37" spans="1:8" x14ac:dyDescent="0.35">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="37" spans="1:8" ht="12.6" customHeight="1">
       <c r="A37">
         <v>3</v>
       </c>
       <c r="B37" t="s">
-        <v>237</v>
+        <v>227</v>
       </c>
       <c r="C37" s="5" t="s">
-        <v>230</v>
+        <v>220</v>
       </c>
       <c r="D37" t="s">
-        <v>229</v>
+        <v>219</v>
       </c>
       <c r="E37" t="s">
-        <v>233</v>
+        <v>223</v>
       </c>
       <c r="F37" s="7" t="s">
-        <v>235</v>
+        <v>225</v>
       </c>
       <c r="G37" s="6" t="s">
         <v>13</v>
       </c>
       <c r="H37" s="7" t="s">
-        <v>236</v>
-      </c>
-    </row>
-    <row r="38" spans="1:8" x14ac:dyDescent="0.35">
+        <v>226</v>
+      </c>
+    </row>
+    <row r="38" spans="1:8">
       <c r="A38">
         <v>2</v>
       </c>
       <c r="B38" t="s">
-        <v>238</v>
+        <v>228</v>
       </c>
       <c r="C38" s="5" t="s">
-        <v>231</v>
+        <v>221</v>
       </c>
       <c r="D38" t="s">
-        <v>228</v>
+        <v>218</v>
       </c>
       <c r="E38" t="s">
-        <v>233</v>
+        <v>223</v>
       </c>
       <c r="F38" s="7" t="s">
-        <v>234</v>
+        <v>224</v>
       </c>
       <c r="G38" s="6" t="s">
         <v>13</v>
       </c>
       <c r="H38" t="s">
-        <v>232</v>
-      </c>
-    </row>
-    <row r="39" spans="1:8" x14ac:dyDescent="0.35">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="39" spans="1:8">
       <c r="A39">
         <v>1</v>
       </c>
@@ -2485,7 +2479,7 @@
         <v>149</v>
       </c>
     </row>
-    <row r="40" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="40" spans="1:8">
       <c r="A40">
         <v>3</v>
       </c>
@@ -2511,59 +2505,59 @@
         <v>150</v>
       </c>
     </row>
-    <row r="41" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="41" spans="1:8">
       <c r="A41">
         <v>1</v>
       </c>
       <c r="B41" t="s">
+        <v>166</v>
+      </c>
+      <c r="C41" s="5" t="s">
+        <v>347</v>
+      </c>
+      <c r="D41" t="s">
+        <v>163</v>
+      </c>
+      <c r="E41" t="s">
         <v>167</v>
       </c>
-      <c r="C41" s="5" t="s">
+      <c r="F41" s="7" t="s">
+        <v>348</v>
+      </c>
+      <c r="G41" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="H41" t="s">
+        <v>349</v>
+      </c>
+    </row>
+    <row r="42" spans="1:8">
+      <c r="A42">
+        <v>1</v>
+      </c>
+      <c r="B42" t="s">
+        <v>170</v>
+      </c>
+      <c r="C42" s="5" t="s">
+        <v>169</v>
+      </c>
+      <c r="D42" t="s">
+        <v>164</v>
+      </c>
+      <c r="E42" t="s">
+        <v>167</v>
+      </c>
+      <c r="F42" t="s">
         <v>171</v>
       </c>
-      <c r="D41" t="s">
-        <v>164</v>
-      </c>
-      <c r="E41" t="s">
+      <c r="G42" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="H42" t="s">
         <v>168</v>
       </c>
-      <c r="F41" s="7" t="s">
-        <v>170</v>
-      </c>
-      <c r="G41" s="6" t="s">
-        <v>13</v>
-      </c>
-      <c r="H41" t="s">
-        <v>169</v>
-      </c>
-    </row>
-    <row r="42" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A42">
-        <v>1</v>
-      </c>
-      <c r="B42" t="s">
-        <v>174</v>
-      </c>
-      <c r="C42" s="5" t="s">
-        <v>173</v>
-      </c>
-      <c r="D42" t="s">
-        <v>165</v>
-      </c>
-      <c r="E42" t="s">
-        <v>168</v>
-      </c>
-      <c r="F42" t="s">
-        <v>175</v>
-      </c>
-      <c r="G42" s="6" t="s">
-        <v>13</v>
-      </c>
-      <c r="H42" t="s">
-        <v>172</v>
-      </c>
-    </row>
-    <row r="43" spans="1:8" x14ac:dyDescent="0.35">
+    </row>
+    <row r="43" spans="1:8">
       <c r="A43">
         <v>4</v>
       </c>
@@ -2571,25 +2565,25 @@
         <v>154</v>
       </c>
       <c r="C43" s="5" t="s">
-        <v>198</v>
+        <v>193</v>
       </c>
       <c r="D43" t="s">
         <v>156</v>
       </c>
       <c r="E43" t="s">
-        <v>200</v>
+        <v>195</v>
       </c>
       <c r="F43" t="s">
-        <v>202</v>
+        <v>197</v>
       </c>
       <c r="G43" s="6" t="s">
         <v>13</v>
       </c>
       <c r="H43" s="7" t="s">
-        <v>203</v>
-      </c>
-    </row>
-    <row r="44" spans="1:8" x14ac:dyDescent="0.35">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="44" spans="1:8">
       <c r="A44">
         <v>4</v>
       </c>
@@ -2597,264 +2591,264 @@
         <v>157</v>
       </c>
       <c r="C44" s="5" t="s">
-        <v>198</v>
+        <v>193</v>
       </c>
       <c r="D44" t="s">
         <v>160</v>
       </c>
       <c r="E44" t="s">
+        <v>195</v>
+      </c>
+      <c r="F44" t="s">
         <v>200</v>
       </c>
-      <c r="F44" t="s">
-        <v>205</v>
-      </c>
       <c r="G44" s="6" t="s">
         <v>13</v>
       </c>
       <c r="H44" s="7" t="s">
-        <v>204</v>
-      </c>
-    </row>
-    <row r="45" spans="1:8" x14ac:dyDescent="0.35">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="45" spans="1:8">
       <c r="A45">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="B45" t="s">
         <v>158</v>
       </c>
       <c r="C45" s="5" t="s">
-        <v>178</v>
+        <v>174</v>
       </c>
       <c r="D45" t="s">
-        <v>208</v>
+        <v>351</v>
       </c>
       <c r="E45" t="s">
-        <v>176</v>
+        <v>172</v>
       </c>
       <c r="F45" t="s">
-        <v>179</v>
+        <v>175</v>
       </c>
       <c r="G45" s="6" t="s">
         <v>13</v>
       </c>
       <c r="H45" t="s">
-        <v>177</v>
-      </c>
-    </row>
-    <row r="46" spans="1:8" x14ac:dyDescent="0.35">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="46" spans="1:8">
       <c r="A46">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="B46" t="s">
         <v>159</v>
       </c>
       <c r="C46" s="5" t="s">
-        <v>198</v>
+        <v>193</v>
       </c>
       <c r="D46" t="s">
+        <v>352</v>
+      </c>
+      <c r="E46" t="s">
+        <v>195</v>
+      </c>
+      <c r="F46" s="7" t="s">
+        <v>202</v>
+      </c>
+      <c r="G46" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="H46" t="s">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="47" spans="1:8">
+      <c r="A47">
+        <v>1</v>
+      </c>
+      <c r="B47" t="s">
         <v>161</v>
       </c>
-      <c r="E46" t="s">
-        <v>200</v>
-      </c>
-      <c r="F46" s="7" t="s">
-        <v>207</v>
-      </c>
-      <c r="G46" s="6" t="s">
-        <v>13</v>
-      </c>
-      <c r="H46" t="s">
-        <v>206</v>
-      </c>
-    </row>
-    <row r="47" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A47">
-        <v>1</v>
-      </c>
-      <c r="B47" t="s">
+      <c r="C47" s="5" t="s">
+        <v>203</v>
+      </c>
+      <c r="D47" t="s">
         <v>162</v>
       </c>
-      <c r="C47" s="5" t="s">
-        <v>209</v>
-      </c>
-      <c r="D47" t="s">
-        <v>163</v>
-      </c>
       <c r="E47" t="s">
-        <v>176</v>
+        <v>172</v>
       </c>
       <c r="F47" t="s">
-        <v>211</v>
+        <v>205</v>
       </c>
       <c r="G47" s="6" t="s">
         <v>13</v>
       </c>
       <c r="H47" t="s">
-        <v>210</v>
-      </c>
-    </row>
-    <row r="48" spans="1:8" x14ac:dyDescent="0.35">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="48" spans="1:8">
       <c r="A48" s="11">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="B48" s="11" t="s">
-        <v>194</v>
+        <v>189</v>
       </c>
       <c r="C48" s="12" t="s">
         <v>155</v>
       </c>
       <c r="D48" s="11" t="s">
-        <v>180</v>
+        <v>350</v>
       </c>
       <c r="E48" s="15" t="s">
-        <v>197</v>
+        <v>192</v>
       </c>
       <c r="F48" s="15"/>
       <c r="G48" s="15"/>
       <c r="H48" s="15"/>
     </row>
-    <row r="49" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="49" spans="1:10">
       <c r="A49">
         <v>25</v>
       </c>
       <c r="B49" t="s">
+        <v>190</v>
+      </c>
+      <c r="C49" s="5" t="s">
+        <v>193</v>
+      </c>
+      <c r="D49" t="s">
+        <v>176</v>
+      </c>
+      <c r="E49" t="s">
         <v>195</v>
       </c>
-      <c r="C49" s="5" t="s">
-        <v>198</v>
-      </c>
-      <c r="D49" t="s">
-        <v>181</v>
-      </c>
-      <c r="E49" t="s">
-        <v>200</v>
-      </c>
       <c r="F49" s="6" t="s">
-        <v>201</v>
+        <v>196</v>
       </c>
       <c r="G49" s="6" t="s">
         <v>13</v>
       </c>
       <c r="H49" s="6" t="s">
-        <v>199</v>
+        <v>194</v>
       </c>
       <c r="I49" s="6"/>
     </row>
-    <row r="50" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="50" spans="1:10">
       <c r="A50">
         <v>1</v>
       </c>
       <c r="B50" t="s">
-        <v>196</v>
+        <v>191</v>
       </c>
       <c r="C50" s="5" t="s">
-        <v>212</v>
+        <v>206</v>
       </c>
       <c r="D50" t="s">
-        <v>217</v>
+        <v>211</v>
       </c>
       <c r="E50" t="s">
-        <v>215</v>
+        <v>209</v>
       </c>
       <c r="F50" t="s">
-        <v>216</v>
+        <v>210</v>
       </c>
       <c r="G50" s="6" t="s">
         <v>13</v>
       </c>
       <c r="H50" t="s">
-        <v>214</v>
-      </c>
-    </row>
-    <row r="51" spans="1:10" x14ac:dyDescent="0.35">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="51" spans="1:10">
       <c r="A51">
         <v>4</v>
       </c>
       <c r="B51" t="s">
-        <v>196</v>
+        <v>191</v>
       </c>
       <c r="C51" s="5" t="s">
+        <v>207</v>
+      </c>
+      <c r="D51" t="s">
+        <v>212</v>
+      </c>
+      <c r="E51" t="s">
+        <v>216</v>
+      </c>
+      <c r="F51" t="s">
+        <v>217</v>
+      </c>
+      <c r="G51" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="H51" t="s">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="52" spans="1:10">
+      <c r="A52">
+        <v>1</v>
+      </c>
+      <c r="B52" s="7" t="s">
+        <v>357</v>
+      </c>
+      <c r="C52" s="5" t="s">
+        <v>356</v>
+      </c>
+      <c r="D52" t="s">
         <v>213</v>
       </c>
-      <c r="D51" t="s">
-        <v>218</v>
-      </c>
-      <c r="E51" t="s">
-        <v>226</v>
-      </c>
-      <c r="F51" t="s">
-        <v>227</v>
-      </c>
-      <c r="G51" s="6" t="s">
-        <v>13</v>
-      </c>
-      <c r="H51" t="s">
-        <v>225</v>
-      </c>
-    </row>
-    <row r="52" spans="1:10" ht="29" x14ac:dyDescent="0.35">
-      <c r="A52">
-        <v>1</v>
-      </c>
-      <c r="B52" s="7" t="s">
-        <v>280</v>
-      </c>
-      <c r="C52" s="5" t="s">
-        <v>224</v>
-      </c>
-      <c r="D52" t="s">
-        <v>219</v>
-      </c>
       <c r="E52" t="s">
-        <v>222</v>
+        <v>355</v>
       </c>
       <c r="F52" t="s">
-        <v>221</v>
+        <v>353</v>
       </c>
       <c r="G52" s="6" t="s">
-        <v>220</v>
-      </c>
-      <c r="H52" s="9" t="s">
-        <v>223</v>
-      </c>
-    </row>
-    <row r="53" spans="1:10" x14ac:dyDescent="0.35">
+        <v>13</v>
+      </c>
+      <c r="H52" t="s">
+        <v>354</v>
+      </c>
+    </row>
+    <row r="53" spans="1:10">
       <c r="A53">
         <v>1</v>
       </c>
       <c r="B53" s="5" t="s">
-        <v>353</v>
+        <v>342</v>
       </c>
       <c r="C53" s="5" t="s">
-        <v>354</v>
+        <v>343</v>
       </c>
       <c r="D53" t="s">
-        <v>352</v>
+        <v>341</v>
       </c>
       <c r="E53" t="s">
-        <v>355</v>
+        <v>344</v>
       </c>
       <c r="F53" t="s">
-        <v>356</v>
+        <v>345</v>
       </c>
       <c r="G53" s="6" t="s">
         <v>13</v>
       </c>
       <c r="H53" t="s">
-        <v>357</v>
-      </c>
-    </row>
-    <row r="54" spans="1:10" x14ac:dyDescent="0.35">
+        <v>346</v>
+      </c>
+    </row>
+    <row r="54" spans="1:10">
       <c r="C54" s="5"/>
     </row>
-    <row r="55" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="55" spans="1:10">
       <c r="A55" s="10" t="s">
-        <v>281</v>
+        <v>270</v>
       </c>
       <c r="B55" s="10"/>
       <c r="C55"/>
     </row>
-    <row r="56" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="56" spans="1:10">
       <c r="A56" s="1" t="s">
         <v>0</v>
       </c>
@@ -2880,592 +2874,592 @@
         <v>5</v>
       </c>
     </row>
-    <row r="57" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="57" spans="1:10">
       <c r="C57" s="5"/>
       <c r="H57" s="9"/>
     </row>
-    <row r="58" spans="1:10" s="4" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="58" spans="1:10" s="4" customFormat="1">
       <c r="A58">
         <v>1</v>
       </c>
       <c r="B58" t="s">
-        <v>286</v>
+        <v>275</v>
       </c>
       <c r="C58" s="5" t="s">
-        <v>245</v>
+        <v>235</v>
       </c>
       <c r="D58" t="s">
-        <v>295</v>
+        <v>284</v>
       </c>
       <c r="E58" t="s">
-        <v>246</v>
+        <v>236</v>
       </c>
       <c r="F58" t="s">
-        <v>247</v>
+        <v>237</v>
       </c>
       <c r="G58" t="s">
         <v>13</v>
       </c>
       <c r="H58" t="s">
-        <v>248</v>
+        <v>238</v>
       </c>
       <c r="I58" s="13" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="J58" s="13" t="s">
-        <v>166</v>
-      </c>
-    </row>
-    <row r="59" spans="1:10" s="4" customFormat="1" ht="29" x14ac:dyDescent="0.35">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="59" spans="1:10" s="4" customFormat="1" ht="28.8">
       <c r="A59">
         <v>9</v>
       </c>
       <c r="B59" t="s">
-        <v>287</v>
+        <v>276</v>
       </c>
       <c r="C59" s="5" t="s">
-        <v>249</v>
+        <v>239</v>
       </c>
       <c r="D59" s="7" t="s">
-        <v>257</v>
+        <v>247</v>
       </c>
       <c r="E59" t="s">
-        <v>246</v>
+        <v>236</v>
       </c>
       <c r="F59" t="s">
-        <v>250</v>
+        <v>240</v>
       </c>
       <c r="G59" t="s">
         <v>13</v>
       </c>
       <c r="H59" t="s">
-        <v>251</v>
+        <v>241</v>
       </c>
       <c r="I59" s="13" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="J59" s="13" t="s">
-        <v>166</v>
-      </c>
-    </row>
-    <row r="60" spans="1:10" s="4" customFormat="1" x14ac:dyDescent="0.35">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="60" spans="1:10" s="4" customFormat="1">
       <c r="A60">
         <v>1</v>
       </c>
       <c r="B60" t="s">
-        <v>288</v>
+        <v>277</v>
       </c>
       <c r="C60" s="5" t="s">
-        <v>255</v>
+        <v>245</v>
       </c>
       <c r="D60" t="s">
         <v>76</v>
       </c>
       <c r="E60" t="s">
-        <v>246</v>
+        <v>236</v>
       </c>
       <c r="F60" t="s">
-        <v>263</v>
+        <v>253</v>
       </c>
       <c r="G60" t="s">
         <v>13</v>
       </c>
       <c r="H60" t="s">
-        <v>272</v>
+        <v>262</v>
       </c>
       <c r="I60" s="13"/>
       <c r="J60" s="13"/>
     </row>
-    <row r="61" spans="1:10" s="4" customFormat="1" ht="29" x14ac:dyDescent="0.35">
+    <row r="61" spans="1:10" s="4" customFormat="1" ht="28.8">
       <c r="A61">
         <v>6</v>
       </c>
       <c r="B61" t="s">
-        <v>289</v>
+        <v>278</v>
       </c>
       <c r="C61" s="5" t="s">
-        <v>252</v>
+        <v>242</v>
       </c>
       <c r="D61" s="7" t="s">
-        <v>256</v>
+        <v>246</v>
       </c>
       <c r="E61" t="s">
-        <v>246</v>
+        <v>236</v>
       </c>
       <c r="F61" t="s">
-        <v>253</v>
+        <v>243</v>
       </c>
       <c r="G61" t="s">
         <v>13</v>
       </c>
       <c r="H61" t="s">
-        <v>254</v>
+        <v>244</v>
       </c>
       <c r="I61" s="13" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="J61" s="13" t="s">
-        <v>166</v>
-      </c>
-    </row>
-    <row r="62" spans="1:10" s="4" customFormat="1" x14ac:dyDescent="0.35">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="62" spans="1:10" s="4" customFormat="1">
       <c r="A62">
         <v>2</v>
       </c>
       <c r="B62" t="s">
-        <v>282</v>
+        <v>271</v>
       </c>
       <c r="C62" s="5" t="s">
-        <v>258</v>
+        <v>248</v>
       </c>
       <c r="D62" s="7" t="s">
-        <v>298</v>
+        <v>287</v>
       </c>
       <c r="E62" t="s">
-        <v>246</v>
+        <v>236</v>
       </c>
       <c r="F62" t="s">
-        <v>271</v>
+        <v>261</v>
       </c>
       <c r="G62" t="s">
         <v>13</v>
       </c>
       <c r="H62" s="7" t="s">
-        <v>270</v>
+        <v>260</v>
       </c>
       <c r="I62" s="13"/>
       <c r="J62" s="13"/>
     </row>
-    <row r="63" spans="1:10" s="4" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="63" spans="1:10" s="4" customFormat="1">
       <c r="A63">
         <v>1</v>
       </c>
       <c r="B63" t="s">
-        <v>283</v>
+        <v>272</v>
       </c>
       <c r="C63" s="5" t="s">
-        <v>259</v>
+        <v>249</v>
       </c>
       <c r="D63" s="7" t="s">
         <v>87</v>
       </c>
       <c r="E63" t="s">
-        <v>246</v>
+        <v>236</v>
       </c>
       <c r="F63" t="s">
-        <v>269</v>
+        <v>259</v>
       </c>
       <c r="G63" t="s">
         <v>13</v>
       </c>
       <c r="H63" t="s">
-        <v>268</v>
+        <v>258</v>
       </c>
       <c r="I63" s="13"/>
       <c r="J63" s="13"/>
     </row>
-    <row r="64" spans="1:10" s="4" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="64" spans="1:10" s="4" customFormat="1">
       <c r="A64">
         <v>4</v>
       </c>
       <c r="B64" t="s">
-        <v>284</v>
+        <v>273</v>
       </c>
       <c r="C64" s="5" t="s">
-        <v>260</v>
+        <v>250</v>
       </c>
       <c r="D64" s="7" t="s">
-        <v>299</v>
+        <v>288</v>
       </c>
       <c r="E64" t="s">
-        <v>246</v>
+        <v>236</v>
       </c>
       <c r="F64" t="s">
-        <v>266</v>
+        <v>256</v>
       </c>
       <c r="G64" t="s">
         <v>13</v>
       </c>
       <c r="H64" t="s">
-        <v>267</v>
+        <v>257</v>
       </c>
       <c r="I64" s="13"/>
       <c r="J64" s="13"/>
     </row>
-    <row r="65" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="65" spans="1:9">
       <c r="A65">
         <v>2</v>
       </c>
       <c r="B65" t="s">
-        <v>285</v>
+        <v>274</v>
       </c>
       <c r="C65" s="5" t="s">
-        <v>261</v>
+        <v>251</v>
       </c>
       <c r="D65" t="s">
-        <v>262</v>
+        <v>252</v>
       </c>
       <c r="E65" t="s">
-        <v>246</v>
+        <v>236</v>
       </c>
       <c r="F65" t="s">
-        <v>264</v>
+        <v>254</v>
       </c>
       <c r="G65" t="s">
         <v>13</v>
       </c>
       <c r="H65" t="s">
-        <v>265</v>
-      </c>
-    </row>
-    <row r="66" spans="1:9" s="4" customFormat="1" ht="29" x14ac:dyDescent="0.35">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="66" spans="1:9" s="4" customFormat="1" ht="28.8">
       <c r="A66">
         <v>1</v>
       </c>
       <c r="B66" s="7" t="s">
-        <v>278</v>
+        <v>268</v>
       </c>
       <c r="C66" s="5" t="s">
-        <v>279</v>
+        <v>269</v>
       </c>
       <c r="D66" s="7" t="s">
         <v>91</v>
       </c>
       <c r="E66" t="s">
-        <v>274</v>
+        <v>264</v>
       </c>
       <c r="F66" s="14" t="s">
-        <v>275</v>
+        <v>265</v>
       </c>
       <c r="G66" t="s">
         <v>13</v>
       </c>
       <c r="H66" s="7" t="s">
-        <v>273</v>
+        <v>263</v>
       </c>
       <c r="I66" s="13" t="s">
-        <v>166</v>
-      </c>
-    </row>
-    <row r="67" spans="1:9" x14ac:dyDescent="0.35">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="67" spans="1:9">
       <c r="A67">
         <v>2</v>
       </c>
       <c r="B67" s="7" t="s">
-        <v>276</v>
+        <v>266</v>
       </c>
       <c r="C67" s="5" t="s">
-        <v>347</v>
+        <v>336</v>
       </c>
       <c r="D67" t="s">
-        <v>241</v>
+        <v>231</v>
       </c>
       <c r="E67" t="s">
-        <v>220</v>
+        <v>214</v>
       </c>
       <c r="F67" t="s">
-        <v>240</v>
+        <v>230</v>
       </c>
       <c r="G67" t="s">
-        <v>220</v>
+        <v>214</v>
       </c>
       <c r="H67" s="9" t="s">
-        <v>239</v>
-      </c>
-    </row>
-    <row r="68" spans="1:9" x14ac:dyDescent="0.35">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="68" spans="1:9">
       <c r="A68">
         <v>1</v>
       </c>
       <c r="B68" s="7" t="s">
+        <v>279</v>
+      </c>
+      <c r="C68" t="s">
+        <v>283</v>
+      </c>
+      <c r="D68" t="s">
+        <v>289</v>
+      </c>
+      <c r="E68" t="s">
+        <v>281</v>
+      </c>
+      <c r="F68" t="s">
+        <v>282</v>
+      </c>
+      <c r="G68" t="s">
+        <v>13</v>
+      </c>
+      <c r="H68" s="9" t="s">
+        <v>280</v>
+      </c>
+    </row>
+    <row r="69" spans="1:9">
+      <c r="A69">
+        <v>1</v>
+      </c>
+      <c r="B69" s="7" t="s">
+        <v>267</v>
+      </c>
+      <c r="C69" s="5" t="s">
+        <v>337</v>
+      </c>
+      <c r="D69" t="s">
+        <v>232</v>
+      </c>
+      <c r="E69" s="5" t="s">
+        <v>214</v>
+      </c>
+      <c r="F69" t="s">
+        <v>234</v>
+      </c>
+      <c r="G69" s="5" t="s">
+        <v>214</v>
+      </c>
+      <c r="H69" s="9" t="s">
+        <v>233</v>
+      </c>
+    </row>
+    <row r="70" spans="1:9">
+      <c r="A70">
+        <v>1</v>
+      </c>
+      <c r="B70" s="7" t="s">
+        <v>286</v>
+      </c>
+      <c r="C70" s="5" t="s">
+        <v>297</v>
+      </c>
+      <c r="D70" t="s">
+        <v>292</v>
+      </c>
+      <c r="E70" t="s">
         <v>290</v>
       </c>
-      <c r="C68" t="s">
+      <c r="F70" t="s">
+        <v>293</v>
+      </c>
+      <c r="G70" t="s">
+        <v>13</v>
+      </c>
+      <c r="H70" s="9" t="s">
+        <v>291</v>
+      </c>
+      <c r="I70" s="6" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="71" spans="1:9">
+      <c r="A71">
+        <v>1</v>
+      </c>
+      <c r="B71" s="7" t="s">
+        <v>285</v>
+      </c>
+      <c r="C71" s="5" t="s">
+        <v>298</v>
+      </c>
+      <c r="D71" t="s">
+        <v>292</v>
+      </c>
+      <c r="E71" t="s">
+        <v>295</v>
+      </c>
+      <c r="F71" t="s">
+        <v>296</v>
+      </c>
+      <c r="G71" t="s">
+        <v>13</v>
+      </c>
+      <c r="H71" t="s">
         <v>294</v>
       </c>
-      <c r="D68" t="s">
-        <v>300</v>
-      </c>
-      <c r="E68" t="s">
-        <v>292</v>
-      </c>
-      <c r="F68" t="s">
-        <v>293</v>
-      </c>
-      <c r="G68" t="s">
-        <v>13</v>
-      </c>
-      <c r="H68" s="9" t="s">
-        <v>291</v>
-      </c>
-    </row>
-    <row r="69" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A69">
-        <v>1</v>
-      </c>
-      <c r="B69" s="7" t="s">
-        <v>277</v>
-      </c>
-      <c r="C69" s="5" t="s">
-        <v>348</v>
-      </c>
-      <c r="D69" t="s">
-        <v>242</v>
-      </c>
-      <c r="E69" s="5" t="s">
-        <v>220</v>
-      </c>
-      <c r="F69" t="s">
-        <v>244</v>
-      </c>
-      <c r="G69" s="5" t="s">
-        <v>220</v>
-      </c>
-      <c r="H69" s="9" t="s">
-        <v>243</v>
-      </c>
-    </row>
-    <row r="70" spans="1:9" ht="29" x14ac:dyDescent="0.35">
-      <c r="A70">
-        <v>1</v>
-      </c>
-      <c r="B70" s="7" t="s">
-        <v>297</v>
-      </c>
-      <c r="C70" s="5" t="s">
-        <v>308</v>
-      </c>
-      <c r="D70" t="s">
-        <v>303</v>
-      </c>
-      <c r="E70" t="s">
-        <v>301</v>
-      </c>
-      <c r="F70" t="s">
-        <v>304</v>
-      </c>
-      <c r="G70" t="s">
-        <v>13</v>
-      </c>
-      <c r="H70" s="9" t="s">
+    </row>
+    <row r="72" spans="1:9">
+      <c r="A72">
+        <v>1</v>
+      </c>
+      <c r="B72" s="7" t="s">
+        <v>327</v>
+      </c>
+      <c r="C72" s="5" t="s">
+        <v>329</v>
+      </c>
+      <c r="D72" t="s">
         <v>302</v>
       </c>
-      <c r="I70" s="6" t="s">
-        <v>166</v>
-      </c>
-    </row>
-    <row r="71" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A71">
-        <v>1</v>
-      </c>
-      <c r="B71" s="7" t="s">
-        <v>296</v>
-      </c>
-      <c r="C71" s="5" t="s">
-        <v>309</v>
-      </c>
-      <c r="D71" t="s">
-        <v>303</v>
-      </c>
-      <c r="E71" t="s">
-        <v>306</v>
-      </c>
-      <c r="F71" t="s">
-        <v>307</v>
-      </c>
-      <c r="G71" t="s">
-        <v>13</v>
-      </c>
-      <c r="H71" t="s">
-        <v>305</v>
-      </c>
-    </row>
-    <row r="72" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A72">
-        <v>1</v>
-      </c>
-      <c r="B72" s="7" t="s">
-        <v>338</v>
-      </c>
-      <c r="C72" s="5" t="s">
-        <v>340</v>
-      </c>
-      <c r="D72" t="s">
-        <v>313</v>
-      </c>
       <c r="E72" t="s">
-        <v>322</v>
+        <v>311</v>
       </c>
       <c r="F72" s="7" t="s">
-        <v>341</v>
+        <v>330</v>
       </c>
       <c r="G72" t="s">
         <v>13</v>
       </c>
       <c r="H72" t="s">
-        <v>339</v>
-      </c>
-    </row>
-    <row r="73" spans="1:9" x14ac:dyDescent="0.35">
+        <v>328</v>
+      </c>
+    </row>
+    <row r="73" spans="1:9" ht="28.8">
       <c r="A73">
         <v>2</v>
       </c>
       <c r="B73" s="7" t="s">
-        <v>330</v>
+        <v>319</v>
       </c>
       <c r="C73" s="5" t="s">
-        <v>345</v>
+        <v>334</v>
       </c>
       <c r="D73" t="s">
-        <v>327</v>
+        <v>316</v>
       </c>
       <c r="E73" t="s">
-        <v>311</v>
+        <v>300</v>
       </c>
       <c r="F73" s="7" t="s">
-        <v>326</v>
+        <v>315</v>
       </c>
       <c r="G73" t="s">
         <v>13</v>
       </c>
       <c r="H73" t="s">
-        <v>325</v>
-      </c>
-    </row>
-    <row r="74" spans="1:9" x14ac:dyDescent="0.35">
+        <v>314</v>
+      </c>
+    </row>
+    <row r="74" spans="1:9">
       <c r="A74">
         <v>2</v>
       </c>
       <c r="B74" s="7" t="s">
-        <v>321</v>
+        <v>310</v>
       </c>
       <c r="C74" s="5" t="s">
-        <v>346</v>
+        <v>335</v>
       </c>
       <c r="D74" t="s">
-        <v>320</v>
+        <v>309</v>
       </c>
       <c r="E74" t="s">
-        <v>322</v>
+        <v>311</v>
       </c>
       <c r="F74" t="s">
-        <v>324</v>
+        <v>313</v>
       </c>
       <c r="G74" t="s">
         <v>13</v>
       </c>
       <c r="H74" s="6" t="s">
-        <v>323</v>
+        <v>312</v>
       </c>
       <c r="I74" s="6" t="s">
-        <v>166</v>
-      </c>
-    </row>
-    <row r="75" spans="1:9" x14ac:dyDescent="0.35">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="75" spans="1:9" ht="28.8">
       <c r="A75">
         <v>1</v>
       </c>
       <c r="B75" s="7" t="s">
-        <v>315</v>
+        <v>304</v>
       </c>
       <c r="C75" s="5" t="s">
-        <v>344</v>
+        <v>333</v>
       </c>
       <c r="D75" t="s">
-        <v>314</v>
+        <v>303</v>
       </c>
       <c r="E75" t="s">
-        <v>311</v>
+        <v>300</v>
       </c>
       <c r="F75" s="7" t="s">
-        <v>329</v>
+        <v>318</v>
       </c>
       <c r="G75" t="s">
         <v>13</v>
       </c>
       <c r="H75" t="s">
-        <v>328</v>
-      </c>
-    </row>
-    <row r="76" spans="1:9" x14ac:dyDescent="0.35">
+        <v>317</v>
+      </c>
+    </row>
+    <row r="76" spans="1:9">
       <c r="A76">
         <v>1</v>
       </c>
       <c r="B76" s="7" t="s">
-        <v>316</v>
+        <v>305</v>
       </c>
       <c r="C76" s="5" t="s">
-        <v>343</v>
+        <v>332</v>
       </c>
       <c r="D76" t="s">
-        <v>310</v>
+        <v>299</v>
       </c>
       <c r="E76" t="s">
-        <v>311</v>
+        <v>300</v>
       </c>
       <c r="F76" t="s">
-        <v>317</v>
+        <v>306</v>
       </c>
       <c r="G76" t="s">
         <v>13</v>
       </c>
       <c r="H76" s="7" t="s">
-        <v>312</v>
-      </c>
-    </row>
-    <row r="77" spans="1:9" x14ac:dyDescent="0.35">
+        <v>301</v>
+      </c>
+    </row>
+    <row r="77" spans="1:9">
       <c r="A77">
         <v>2</v>
       </c>
       <c r="B77" s="7" t="s">
-        <v>342</v>
+        <v>331</v>
       </c>
       <c r="C77" s="5" t="s">
-        <v>333</v>
+        <v>322</v>
       </c>
       <c r="D77" t="s">
-        <v>318</v>
+        <v>307</v>
       </c>
       <c r="E77" t="s">
-        <v>331</v>
+        <v>320</v>
       </c>
       <c r="F77" s="9" t="s">
-        <v>334</v>
+        <v>323</v>
       </c>
       <c r="G77" t="s">
         <v>13</v>
       </c>
       <c r="H77" s="7" t="s">
-        <v>332</v>
-      </c>
-    </row>
-    <row r="78" spans="1:9" x14ac:dyDescent="0.35">
+        <v>321</v>
+      </c>
+    </row>
+    <row r="78" spans="1:9">
       <c r="A78">
         <v>2</v>
       </c>
       <c r="B78" s="7" t="s">
-        <v>319</v>
+        <v>308</v>
       </c>
       <c r="C78" s="5" t="s">
-        <v>335</v>
+        <v>324</v>
       </c>
       <c r="D78" t="s">
-        <v>318</v>
+        <v>307</v>
       </c>
       <c r="E78" t="s">
-        <v>311</v>
+        <v>300</v>
       </c>
       <c r="F78" t="s">
-        <v>337</v>
+        <v>326</v>
       </c>
       <c r="G78" t="s">
         <v>13</v>
       </c>
       <c r="H78" t="s">
-        <v>336</v>
-      </c>
-    </row>
-    <row r="79" spans="1:9" x14ac:dyDescent="0.35">
+        <v>325</v>
+      </c>
+    </row>
+    <row r="79" spans="1:9">
       <c r="B79" s="7"/>
     </row>
   </sheetData>
@@ -3473,23 +3467,23 @@
     <mergeCell ref="E48:H48"/>
   </mergeCells>
   <hyperlinks>
-    <hyperlink ref="E20" r:id="rId1" display="https://www.digikey.com/en/supplier-centers/abracon" xr:uid="{21A9CD11-3F62-44EB-AD7C-A106813E3B57}"/>
+    <hyperlink ref="E20" r:id="rId1" display="https://www.digikey.com/en/supplier-centers/abracon"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup scale="81" fitToHeight="0" orientation="landscape" horizontalDpi="360" verticalDpi="360" r:id="rId2"/>
   <ignoredErrors>
-    <ignoredError sqref="B7 H52 H69 F66 H67 F77" numberStoredAsText="1"/>
+    <ignoredError sqref="B7 H69 F66 H67 F77" numberStoredAsText="1"/>
   </ignoredErrors>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F03028A6-B091-45C3-BD14-827B0EB5A4F8}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="14.4"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
